--- a/Corr.xlsx
+++ b/Corr.xlsx
@@ -26016,15 +26016,11 @@
       <c r="B2" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>-63499.50125844633</t>
-        </is>
+      <c r="C2" s="4" t="n">
+        <v>-63499.50125844633</v>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>-24816.20735352512</t>
-        </is>
+      <c r="D2" s="4" t="n">
+        <v>-24816.20735352512</v>
       </c>
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="6" t="n"/>
@@ -26082,10 +26078,18 @@
       <c r="X3" s="6" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="11" t="n"/>
-      <c r="B4" s="11" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
+      <c r="A4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E4" s="6" t="n"/>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="6" t="n"/>
@@ -26108,10 +26112,18 @@
       <c r="X4" s="6" t="n"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
+      <c r="A5" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E5" s="6" t="n"/>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="6" t="n"/>
@@ -26134,10 +26146,18 @@
       <c r="X5" s="6" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="11" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
+      <c r="A6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E6" s="6" t="n"/>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="6" t="n"/>
@@ -26160,10 +26180,18 @@
       <c r="X6" s="6" t="n"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="11" t="n"/>
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="n"/>
+      <c r="A7" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E7" s="6" t="n"/>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="6" t="n"/>
@@ -26186,10 +26214,18 @@
       <c r="X7" s="6" t="n"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="11" t="n"/>
-      <c r="B8" s="11" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="n"/>
+      <c r="A8" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E8" s="6" t="n"/>
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="6" t="n"/>
@@ -26212,10 +26248,18 @@
       <c r="X8" s="6" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="11" t="n"/>
-      <c r="B9" s="11" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
+      <c r="A9" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E9" s="6" t="n"/>
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="6" t="n"/>
@@ -26238,10 +26282,18 @@
       <c r="X9" s="6" t="n"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="11" t="n"/>
-      <c r="B10" s="11" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="4" t="n"/>
+      <c r="A10" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E10" s="6" t="n"/>
       <c r="F10" s="6" t="n"/>
       <c r="G10" s="6" t="n"/>
@@ -26264,10 +26316,18 @@
       <c r="X10" s="6" t="n"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="11" t="n"/>
-      <c r="B11" s="11" t="n"/>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
+      <c r="A11" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E11" s="6" t="n"/>
       <c r="F11" s="6" t="n"/>
       <c r="G11" s="6" t="n"/>
@@ -26290,10 +26350,18 @@
       <c r="X11" s="6" t="n"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="11" t="n"/>
-      <c r="B12" s="11" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
+      <c r="A12" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E12" s="6" t="n"/>
       <c r="F12" s="6" t="n"/>
       <c r="G12" s="6" t="n"/>
@@ -26316,10 +26384,18 @@
       <c r="X12" s="6" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="11" t="n"/>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
+      <c r="A13" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E13" s="6" t="n"/>
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="6" t="n"/>
@@ -26342,10 +26418,18 @@
       <c r="X13" s="6" t="n"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="11" t="n"/>
-      <c r="B14" s="11" t="n"/>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
+      <c r="A14" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E14" s="6" t="n"/>
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="6" t="n"/>
@@ -26368,10 +26452,18 @@
       <c r="X14" s="6" t="n"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="11" t="n"/>
-      <c r="B15" s="11" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
+      <c r="A15" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E15" s="6" t="n"/>
       <c r="F15" s="6" t="n"/>
       <c r="G15" s="6" t="n"/>
@@ -26394,10 +26486,18 @@
       <c r="X15" s="6" t="n"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="11" t="n"/>
-      <c r="B16" s="11" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
+      <c r="A16" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E16" s="6" t="n"/>
       <c r="F16" s="6" t="n"/>
       <c r="G16" s="6" t="n"/>
@@ -26420,10 +26520,18 @@
       <c r="X16" s="6" t="n"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="11" t="n"/>
-      <c r="B17" s="11" t="n"/>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
+      <c r="A17" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>2595.460221551544</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>46.79544109091361</v>
+      </c>
       <c r="E17" s="6" t="n"/>
       <c r="F17" s="6" t="n"/>
       <c r="G17" s="6" t="n"/>
